--- a/content/ensino/segundo-semestre-de-2022/mes-11-dia-27-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-11-dia-27-ava-matc65.xlsx
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -496,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -606,7 +606,7 @@
         <v>220215074</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -734,13 +734,13 @@
         <v>219118723</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1470,13 +1470,13 @@
         <v>219218353</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1520,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
